--- a/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f103_bao_cao_nhan_su_chung.xlsx
+++ b/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f103_bao_cao_nhan_su_chung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TỔ HỢP GIÁO DỤC TOPICA
 Trụ sở chính: Phòng 310, nhà A17, số 17, Tạ Quang Bửu, Hà Nội
@@ -25,9 +25,6 @@
 Email: info@topica.edu.vn</t>
   </si>
   <si>
-    <t>BÁO CÁO HỢP ĐỒNG LAO ĐỘNG</t>
-  </si>
-  <si>
     <t>&lt;ngay_thang&gt;</t>
   </si>
   <si>
@@ -40,41 +37,35 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>Mã hợp đồng</t>
-  </si>
-  <si>
-    <t>Loại hợp đồng</t>
-  </si>
-  <si>
-    <t>Ngày ký hợp đồng</t>
-  </si>
-  <si>
-    <t>Ngày có hiệu lực</t>
-  </si>
-  <si>
-    <t>Ngày hết hạn</t>
-  </si>
-  <si>
-    <t>Tên pháp nhân</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Người ký</t>
-  </si>
-  <si>
-    <t>Chức vụ người ký</t>
+    <t>BÁO CÁO NHÂN SỰ CHUNG</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Mã chức vụ</t>
+  </si>
+  <si>
+    <t>Tên chức vụ</t>
+  </si>
+  <si>
+    <t>Tỷ lệ tham gia</t>
+  </si>
+  <si>
+    <t>ngày bắt đầu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,7 +75,7 @@
     </font>
     <font>
       <sz val="20"/>
-      <color theme="1"/>
+      <color rgb="FFC00000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -93,13 +84,7 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,14 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -142,14 +127,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,29 +434,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -482,71 +460,62 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f103_bao_cao_nhan_su_chung.xlsx
+++ b/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f103_bao_cao_nhan_su_chung.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\0.Du an\BKI_HRM\03. SourceCode\BKI_HRM\bin\Debug\Reports\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TỔ HỢP GIÁO DỤC TOPICA
 Trụ sở chính: Phòng 310, nhà A17, số 17, Tạ Quang Bửu, Hà Nội
@@ -58,13 +63,49 @@
     <t>Tỷ lệ tham gia</t>
   </si>
   <si>
-    <t>ngày bắt đầu</t>
+    <t>Địa bàn</t>
+  </si>
+  <si>
+    <t>Mã đơn vị</t>
+  </si>
+  <si>
+    <t>Tên đơn vị</t>
+  </si>
+  <si>
+    <t>Loại đơn vị</t>
+  </si>
+  <si>
+    <t>Cấp đơn vị</t>
+  </si>
+  <si>
+    <t>Mã HeadCount</t>
+  </si>
+  <si>
+    <t>Trạng thái lao động</t>
+  </si>
+  <si>
+    <t>Ngày có hiệu lực trạng thái lao động</t>
+  </si>
+  <si>
+    <t>Ngày hết hiệu lực trạng thái lao động</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu chức vụ</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc chức vụ</t>
+  </si>
+  <si>
+    <t>Trình độ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -120,6 +161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -130,7 +174,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -142,6 +187,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -190,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,65 +498,100 @@
     <col min="6" max="6" width="12.7109375"/>
     <col min="7" max="7" width="28.85546875" customWidth="1"/>
     <col min="8" max="9" width="17" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" style="8"/>
+    <col min="19" max="19" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:20" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="J7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="S7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>12</v>
+      <c r="T7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
